--- a/Unity/Assets/Config/Excel/Datas/ItemConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/ItemConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F774663B-E10F-43A0-A865-4844C6BBC1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAC703E-3FA6-4D4E-B596-CD39007EC43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Id</t>
   </si>
@@ -75,6 +75,10 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>经验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -491,7 +495,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -599,6 +603,27 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
       <c r="I5" s="3"/>
     </row>
   </sheetData>
